--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirdonyadide/Desktop/Term 2/SOFTWARE ENGINEERING/SE4G-LOCAL/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirdonyadide/Desktop/SE4G/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4825F61B-73CC-E746-8F1B-8B600A4C4970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BEABD9-F797-D040-B839-3C46866BC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{17DD1C18-8529-4449-AAA0-14F351B22179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>userid</t>
   </si>
@@ -56,15 +56,9 @@
     <t>donyadide</t>
   </si>
   <si>
-    <t>user_type</t>
-  </si>
-  <si>
     <t>amir@example.com</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
     <t>john</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>john@example.com</t>
-  </si>
-  <si>
-    <t>expert</t>
   </si>
   <si>
     <t>password</t>
@@ -478,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABC59DD-E466-AC44-A2FA-98ED3E58F402}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -489,7 +480,7 @@
     <col min="1" max="16384" width="38.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,13 +494,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -520,32 +508,26 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>1234</v>
       </c>
     </row>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirdonyadide/Desktop/SE4G/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BEABD9-F797-D040-B839-3C46866BC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA69B55-4DB7-6642-929F-157113566EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{17DD1C18-8529-4449-AAA0-14F351B22179}"/>
   </bookViews>
@@ -38,37 +38,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>userid</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>amir</t>
+  </si>
+  <si>
+    <t>donyadide</t>
+  </si>
+  <si>
+    <t>amir@example.com</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>dohn</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>donyadide</t>
-  </si>
-  <si>
-    <t>amir@example.com</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>dohn</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -482,19 +482,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>1234</v>
@@ -519,13 +519,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1234</v>
